--- a/data/raw_data/degradation_curves_vehicles.xlsx
+++ b/data/raw_data/degradation_curves_vehicles.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14266CA-287F-8144-912A-8209BCE5E657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5BCCBF-CE22-2546-BE5F-630549D23A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="500" windowWidth="32020" windowHeight="21660" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="63280" windowHeight="28040" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateCount="1000"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F8629-6B55-B242-BF24-8308AAED88DC}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3805,10 +3805,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C57">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3816,10 +3816,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3827,10 +3827,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3838,10 +3838,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3849,10 +3849,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3860,10 +3860,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3871,10 +3871,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3882,10 +3882,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3893,10 +3893,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3904,10 +3904,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3915,10 +3915,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3926,10 +3926,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3937,10 +3937,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3948,10 +3948,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3959,10 +3959,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3970,10 +3970,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3981,10 +3981,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3992,10 +3992,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -4003,10 +4003,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -4014,10 +4014,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -4025,10 +4025,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -4036,10 +4036,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -4047,10 +4047,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -4058,10 +4058,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -4069,10 +4069,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -4080,10 +4080,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -4091,10 +4091,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -4102,10 +4102,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -4113,10 +4113,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -4124,10 +4124,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -4135,10 +4135,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -4146,10 +4146,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -4157,10 +4157,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -4168,10 +4168,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -4179,10 +4179,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -4190,10 +4190,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -4201,10 +4201,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -4212,10 +4212,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -4223,10 +4223,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -4234,10 +4234,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -4245,10 +4245,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -4267,10 +4267,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -4278,10 +4278,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -4289,10 +4289,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -4300,10 +4300,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/degradation_curves_vehicles.xlsx
+++ b/data/raw_data/degradation_curves_vehicles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5BCCBF-CE22-2546-BE5F-630549D23A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97FBAAF-0001-564D-A80A-0A5DCA257201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="63280" windowHeight="28040" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,94 +530,94 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99</c:v>
+                  <c:v>0.9866666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98</c:v>
+                  <c:v>0.97333333333333338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97</c:v>
+                  <c:v>0.96000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96000000000000008</c:v>
+                  <c:v>0.94666666666666677</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95000000000000007</c:v>
+                  <c:v>0.93333333333333346</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94000000000000006</c:v>
+                  <c:v>0.92000000000000015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93</c:v>
+                  <c:v>0.90666666666666673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92</c:v>
+                  <c:v>0.89333333333333342</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91</c:v>
+                  <c:v>0.88000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9</c:v>
+                  <c:v>0.86666666666666681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.89</c:v>
+                  <c:v>0.8533333333333335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88000000000000012</c:v>
+                  <c:v>0.84000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.87000000000000011</c:v>
+                  <c:v>0.82666666666666677</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.8600000000000001</c:v>
+                  <c:v>0.81333333333333346</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85000000000000009</c:v>
+                  <c:v>0.80000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.84000000000000008</c:v>
+                  <c:v>0.78000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83000000000000007</c:v>
+                  <c:v>0.76000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.82000000000000006</c:v>
+                  <c:v>0.7400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.81</c:v>
+                  <c:v>0.72000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.78</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.76</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.74</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.72</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.68</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.66</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.64</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.62</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,94 +1267,94 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99</c:v>
+                  <c:v>0.9866666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98</c:v>
+                  <c:v>0.97333333333333338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97</c:v>
+                  <c:v>0.96000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96000000000000008</c:v>
+                  <c:v>0.94666666666666677</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95000000000000007</c:v>
+                  <c:v>0.93333333333333346</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94000000000000006</c:v>
+                  <c:v>0.92000000000000015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93</c:v>
+                  <c:v>0.90666666666666673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92</c:v>
+                  <c:v>0.89333333333333342</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91</c:v>
+                  <c:v>0.88000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9</c:v>
+                  <c:v>0.86666666666666681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.89</c:v>
+                  <c:v>0.8533333333333335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88000000000000012</c:v>
+                  <c:v>0.84000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.87000000000000011</c:v>
+                  <c:v>0.82666666666666677</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.8600000000000001</c:v>
+                  <c:v>0.81333333333333346</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85000000000000009</c:v>
+                  <c:v>0.80000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.84000000000000008</c:v>
+                  <c:v>0.78000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83000000000000007</c:v>
+                  <c:v>0.76000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.82000000000000006</c:v>
+                  <c:v>0.7400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.81</c:v>
+                  <c:v>0.72000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.78</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.76</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.74</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.72</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.68</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.66</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.64</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.62</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F8629-6B55-B242-BF24-8308AAED88DC}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3214,7 +3214,7 @@
         <v>0.9866666666666668</v>
       </c>
       <c r="C3">
-        <v>0.99</v>
+        <v>0.9866666666666668</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3225,7 +3225,7 @@
         <v>0.97333333333333338</v>
       </c>
       <c r="C4">
-        <v>0.98</v>
+        <v>0.97333333333333338</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3236,7 +3236,7 @@
         <v>0.96000000000000008</v>
       </c>
       <c r="C5">
-        <v>0.97</v>
+        <v>0.96000000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3247,7 +3247,7 @@
         <v>0.94666666666666677</v>
       </c>
       <c r="C6">
-        <v>0.96000000000000008</v>
+        <v>0.94666666666666677</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3258,7 +3258,7 @@
         <v>0.93333333333333346</v>
       </c>
       <c r="C7">
-        <v>0.95000000000000007</v>
+        <v>0.93333333333333346</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3269,7 +3269,7 @@
         <v>0.92000000000000015</v>
       </c>
       <c r="C8">
-        <v>0.94000000000000006</v>
+        <v>0.92000000000000015</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3280,7 +3280,7 @@
         <v>0.90666666666666673</v>
       </c>
       <c r="C9">
-        <v>0.93</v>
+        <v>0.90666666666666673</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3291,7 +3291,7 @@
         <v>0.89333333333333342</v>
       </c>
       <c r="C10">
-        <v>0.92</v>
+        <v>0.89333333333333342</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3302,7 +3302,7 @@
         <v>0.88000000000000012</v>
       </c>
       <c r="C11">
-        <v>0.91</v>
+        <v>0.88000000000000012</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3313,7 +3313,7 @@
         <v>0.86666666666666681</v>
       </c>
       <c r="C12">
-        <v>0.9</v>
+        <v>0.86666666666666681</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3324,7 +3324,7 @@
         <v>0.8533333333333335</v>
       </c>
       <c r="C13">
-        <v>0.89</v>
+        <v>0.8533333333333335</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3335,7 +3335,7 @@
         <v>0.84000000000000008</v>
       </c>
       <c r="C14">
-        <v>0.88000000000000012</v>
+        <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3346,7 +3346,7 @@
         <v>0.82666666666666677</v>
       </c>
       <c r="C15">
-        <v>0.87000000000000011</v>
+        <v>0.82666666666666677</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3357,7 +3357,7 @@
         <v>0.81333333333333346</v>
       </c>
       <c r="C16">
-        <v>0.8600000000000001</v>
+        <v>0.81333333333333346</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3368,7 +3368,7 @@
         <v>0.80000000000000016</v>
       </c>
       <c r="C17">
-        <v>0.85000000000000009</v>
+        <v>0.80000000000000016</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3379,7 +3379,7 @@
         <v>0.78000000000000014</v>
       </c>
       <c r="C18">
-        <v>0.84000000000000008</v>
+        <v>0.78000000000000014</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3390,7 +3390,7 @@
         <v>0.76000000000000012</v>
       </c>
       <c r="C19">
-        <v>0.83000000000000007</v>
+        <v>0.76000000000000012</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3401,7 +3401,7 @@
         <v>0.7400000000000001</v>
       </c>
       <c r="C20">
-        <v>0.82000000000000006</v>
+        <v>0.7400000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3412,7 +3412,7 @@
         <v>0.72000000000000008</v>
       </c>
       <c r="C21">
-        <v>0.81</v>
+        <v>0.72000000000000008</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3423,7 +3423,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="C22">
-        <v>0.8</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3434,7 +3434,7 @@
         <v>0.68</v>
       </c>
       <c r="C23">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3445,7 +3445,7 @@
         <v>0.66</v>
       </c>
       <c r="C24">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3456,7 +3456,7 @@
         <v>0.64</v>
       </c>
       <c r="C25">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3467,7 +3467,7 @@
         <v>0.62</v>
       </c>
       <c r="C26">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3478,7 +3478,7 @@
         <v>0.6</v>
       </c>
       <c r="C27">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3489,7 +3489,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C28">
-        <v>0.68</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3500,7 +3500,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C29">
-        <v>0.66</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3511,7 +3511,7 @@
         <v>0.54</v>
       </c>
       <c r="C30">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3522,7 +3522,7 @@
         <v>0.52</v>
       </c>
       <c r="C31">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3533,7 +3533,7 @@
         <v>0.5</v>
       </c>
       <c r="C32">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3544,7 +3544,7 @@
         <v>0.48</v>
       </c>
       <c r="C33">
-        <v>0.57999999999999996</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3555,7 +3555,7 @@
         <v>0.46</v>
       </c>
       <c r="C34">
-        <v>0.56000000000000005</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3566,7 +3566,7 @@
         <v>0.44</v>
       </c>
       <c r="C35">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3577,7 +3577,7 @@
         <v>0.42</v>
       </c>
       <c r="C36">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3588,7 +3588,7 @@
         <v>0.4</v>
       </c>
       <c r="C37">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3599,7 +3599,7 @@
         <v>0.38</v>
       </c>
       <c r="C38">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3610,7 +3610,7 @@
         <v>0.36</v>
       </c>
       <c r="C39">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3621,7 +3621,7 @@
         <v>0.34</v>
       </c>
       <c r="C40">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3632,7 +3632,7 @@
         <v>0.32</v>
       </c>
       <c r="C41">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3643,7 +3643,7 @@
         <v>0.3</v>
       </c>
       <c r="C42">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3654,7 +3654,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C43">
-        <v>0.38</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3665,7 +3665,7 @@
         <v>0.26</v>
       </c>
       <c r="C44">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3676,7 +3676,7 @@
         <v>0.24</v>
       </c>
       <c r="C45">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
         <v>0.22</v>
       </c>
       <c r="C46">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3698,7 +3698,7 @@
         <v>0.2</v>
       </c>
       <c r="C47">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3709,7 +3709,7 @@
         <v>0.18</v>
       </c>
       <c r="C48">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3720,7 +3720,7 @@
         <v>0.16</v>
       </c>
       <c r="C49">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3731,7 +3731,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C50">
-        <v>0.24</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3742,7 +3742,7 @@
         <v>0.12</v>
       </c>
       <c r="C51">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3753,7 +3753,7 @@
         <v>0.1</v>
       </c>
       <c r="C52">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <v>0.08</v>
       </c>
       <c r="C53">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
         <v>5.9999999999999103E-2</v>
       </c>
       <c r="C54">
-        <v>0.16</v>
+        <v>5.9999999999999103E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3786,7 +3786,7 @@
         <v>3.9999999999999002E-2</v>
       </c>
       <c r="C55">
-        <v>0.14000000000000001</v>
+        <v>3.9999999999999002E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3797,7 +3797,7 @@
         <v>1.9999999999999001E-2</v>
       </c>
       <c r="C56">
-        <v>0.12</v>
+        <v>1.9999999999999001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/raw_data/degradation_curves_vehicles.xlsx
+++ b/data/raw_data/degradation_curves_vehicles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feraguilar/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97FBAAF-0001-564D-A80A-0A5DCA257201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70BBEDB-5002-F74B-8B4E-5616B328A552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -844,8 +844,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Battery degradation for different battery chemistries</a:t>
+              <a:t>Battery degradation for batteries in</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vehicles</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1125,247 +1130,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>LFP decay</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9866666666666668</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97333333333333338</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94666666666666677</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93333333333333346</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.92000000000000015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90666666666666673</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89333333333333342</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.88000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.86666666666666681</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8533333333333335</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.84000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.82666666666666677</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.81333333333333346</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.80000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.78000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.76000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.7400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.72000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.70000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B208-7F43-B0A7-FD65245F5AB6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1381,6 +1145,7 @@
         <c:axId val="1206444448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1419,7 +1184,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Age of battery</a:t>
+                  <a:t>Age of battery [years]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1498,6 +1263,7 @@
         <c:axId val="1206564512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2839,16 +2605,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3175,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F8629-6B55-B242-BF24-8308AAED88DC}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/raw_data/degradation_curves_vehicles.xlsx
+++ b/data/raw_data/degradation_curves_vehicles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feraguilar/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70BBEDB-5002-F74B-8B4E-5616B328A552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F4794C-74B4-E64A-B921-067C7441EF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1385,37 +1386,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1450,6 +1420,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2605,6 +2576,56 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CEC65EA-8AC7-98EE-FA80-16571FE8A468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="26492200" y="7747000"/>
+          <a:ext cx="0" cy="4394200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2616,30 +2637,643 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="Group 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22176E7F-319F-E742-9A5A-CF8D83823539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9295010A-ECB7-98D3-E2A5-7BAF356325DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5613400" y="203200"/>
+          <a:ext cx="10883900" cy="7632700"/>
+          <a:chOff x="5613400" y="203200"/>
+          <a:chExt cx="10883900" cy="7632700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Chart 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22176E7F-319F-E742-9A5A-CF8D83823539}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5613400" y="203200"/>
+          <a:ext cx="10883900" cy="7632700"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8090967F-3D5A-DCEF-D447-6F841E3AE6C6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9740900" y="3860800"/>
+            <a:ext cx="3263900" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F0DB44-74CF-BC45-915F-C690E3809277}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8128000" y="5778500"/>
+            <a:ext cx="6477000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.52742</cdr:x>
+      <cdr:y>0.16306</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52742</cdr:x>
+      <cdr:y>0.89684</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE97306-EA38-C48B-DE97-7E317BD61B80}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="5740400" y="1244600"/>
+          <a:ext cx="0" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47375</cdr:x>
+      <cdr:y>0.11647</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6231</cdr:x>
+      <cdr:y>0.17804</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702A7D57-FF0C-B3E6-7309-1817092F77F4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5156200" y="889000"/>
+          <a:ext cx="1625600" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600"/>
+            <a:t>Mean lifetime</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67795</cdr:x>
+      <cdr:y>0.3228</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.67795</cdr:x>
+      <cdr:y>0.8985</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0591F4-34F7-ADE7-048D-C00B3B5D8166}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="7378700" y="2463800"/>
+          <a:ext cx="0" cy="4394200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.3804</cdr:x>
+      <cdr:y>0.18636</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.3804</cdr:x>
+      <cdr:y>0.89185</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CEC65EA-8AC7-98EE-FA80-16571FE8A468}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="4140200" y="1422400"/>
+          <a:ext cx="0" cy="5384800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48658</cdr:x>
+      <cdr:y>0.43261</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.63594</cdr:x>
+      <cdr:y>0.49418</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F045B7B-9EC1-8D35-E268-C6489A26CB5D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5295900" y="3302000"/>
+          <a:ext cx="1625600" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>68% of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> values</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48775</cdr:x>
+      <cdr:y>0.68053</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.63711</cdr:x>
+      <cdr:y>0.7421</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89C60B7-2191-5BCA-321E-10A58325AE57}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5308600" y="5194300"/>
+          <a:ext cx="1625600" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>99% of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> values</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.82614</cdr:x>
+      <cdr:y>0.40266</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82614</cdr:x>
+      <cdr:y>0.89351</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E336FF67-85F3-9FA3-6E23-93DFCF971123}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="8991600" y="3073400"/>
+          <a:ext cx="0" cy="3746500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.23221</cdr:x>
+      <cdr:y>0.13478</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.23221</cdr:x>
+      <cdr:y>0.89351</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46DBE58-4BA4-85A0-0BDA-1804E158C7F2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="2527300" y="1028700"/>
+          <a:ext cx="0" cy="5791200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2941,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F8629-6B55-B242-BF24-8308AAED88DC}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/raw_data/degradation_curves_vehicles.xlsx
+++ b/data/raw_data/degradation_curves_vehicles.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feraguilar/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F4794C-74B4-E64A-B921-067C7441EF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768F872-C8AA-1C4F-82AB-DE8857B22297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28680" windowHeight="20860" xr2:uid="{92548F31-C31D-0241-8F30-7F9E6B95A567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2639,10 +2638,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="Group 8">
+        <xdr:cNvPr id="5" name="Group 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9295010A-ECB7-98D3-E2A5-7BAF356325DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AD7F08-301A-B1E2-0C62-76A2E6845947}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2765,7 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.52742</cdr:x>
-      <cdr:y>0.16306</cdr:y>
+      <cdr:y>0.24293</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.52742</cdr:x>
@@ -2785,8 +2784,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="5740400" y="1244600"/>
-          <a:ext cx="0" cy="5600700"/>
+          <a:off x="5740387" y="1854200"/>
+          <a:ext cx="0" cy="4991111"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3164,7 +3163,7 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>99% of</a:t>
+            <a:t>95% of</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1600" baseline="0">
@@ -3575,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9F8629-6B55-B242-BF24-8308AAED88DC}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
